--- a/PythonResources/Data/Consumption/Sympheny/futu_1692_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1692_hea.xlsx
@@ -503,7 +503,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>56.24355610053744</v>
+        <v>56.24355610053743</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>52.75308003008082</v>
+        <v>52.75308003008081</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -927,7 +927,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>40.3714147887163</v>
+        <v>40.37141478871629</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>40.03526230737174</v>
+        <v>40.03526230737173</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>66.38410710925865</v>
+        <v>66.38410710925864</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>63.04280419748065</v>
+        <v>63.04280419748064</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>32.21905770627366</v>
+        <v>32.21905770627365</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>57.63476432106285</v>
+        <v>57.63476432106284</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>52.41165227004035</v>
+        <v>52.41165227004034</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>59.69827750427738</v>
+        <v>59.69827750427737</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>67.18155340545617</v>
+        <v>67.18155340545616</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>69.12285596554892</v>
+        <v>69.12285596554891</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>69.31892049041336</v>
+        <v>69.31892049041335</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>80.90108793830973</v>
+        <v>80.90108793830971</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2015,7 +2015,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>22.18237107365403</v>
+        <v>22.18237107365402</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>66.47876905474627</v>
+        <v>66.47876905474625</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>73.95589046411317</v>
+        <v>73.95589046411315</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>78.78101204463356</v>
+        <v>78.78101204463354</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>48.68173716099741</v>
+        <v>48.6817371609974</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>55.89949070114902</v>
+        <v>55.89949070114901</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>6.664494033366725</v>
+        <v>6.664494033366724</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>22.2632293732207</v>
+        <v>22.26322937322069</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2791,7 +2791,7 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>0.3157254299498673</v>
+        <v>0.3157254299498672</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>3.465623646378141</v>
+        <v>3.46562364637814</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>3.376412822209627</v>
+        <v>3.376412822209626</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>0.5802982408117834</v>
+        <v>0.5802982408117833</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>336</v>
       </c>
       <c r="B336">
-        <v>23.40078460978471</v>
+        <v>23.4007846097847</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>36.8504593302389</v>
+        <v>36.85045933023889</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>361</v>
       </c>
       <c r="B361">
-        <v>29.08952792703235</v>
+        <v>29.08952792703234</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>8.427990394303638</v>
+        <v>8.427990394303636</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>396</v>
       </c>
       <c r="B396">
-        <v>9.138658355953536</v>
+        <v>9.138658355953533</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>399</v>
       </c>
       <c r="B399">
-        <v>3.529659668325645</v>
+        <v>3.529659668325644</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>401</v>
       </c>
       <c r="B401">
-        <v>7.53104648048059</v>
+        <v>7.531046480480589</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>406</v>
       </c>
       <c r="B406">
-        <v>36.55240608392031</v>
+        <v>36.5524060839203</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>414</v>
       </c>
       <c r="B414">
-        <v>70.97799564027524</v>
+        <v>70.97799564027522</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>428</v>
       </c>
       <c r="B428">
-        <v>55.48391596832723</v>
+        <v>55.48391596832722</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>436</v>
       </c>
       <c r="B436">
-        <v>76.60056351699315</v>
+        <v>76.60056351699313</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>437</v>
       </c>
       <c r="B437">
-        <v>78.88358690816503</v>
+        <v>78.88358690816501</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>438</v>
       </c>
       <c r="B438">
-        <v>79.33198559731689</v>
+        <v>79.33198559731687</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>439</v>
       </c>
       <c r="B439">
-        <v>79.78976255970591</v>
+        <v>79.78976255970589</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>464</v>
       </c>
       <c r="B464">
-        <v>35.24062011487213</v>
+        <v>35.24062011487212</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>467</v>
       </c>
       <c r="B467">
-        <v>26.25655673181246</v>
+        <v>26.25655673181245</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>54.41948195590923</v>
+        <v>54.41948195590922</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>481</v>
       </c>
       <c r="B481">
-        <v>64.53482885530556</v>
+        <v>64.53482885530555</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>499</v>
       </c>
       <c r="B499">
-        <v>39.12293216401897</v>
+        <v>39.12293216401896</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>500</v>
       </c>
       <c r="B500">
-        <v>37.52833264266259</v>
+        <v>37.52833264266258</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>514</v>
       </c>
       <c r="B514">
-        <v>32.05845477708724</v>
+        <v>32.05845477708723</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>515</v>
       </c>
       <c r="B515">
-        <v>31.86180411014548</v>
+        <v>31.86180411014547</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>525</v>
       </c>
       <c r="B525">
-        <v>43.40059704431997</v>
+        <v>43.40059704431996</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>526</v>
       </c>
       <c r="B526">
-        <v>42.38657125055171</v>
+        <v>42.3865712505517</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>527</v>
       </c>
       <c r="B527">
-        <v>45.18393431457425</v>
+        <v>45.18393431457424</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4591,7 +4591,7 @@
         <v>531</v>
       </c>
       <c r="B531">
-        <v>60.03149927523533</v>
+        <v>60.03149927523532</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>532</v>
       </c>
       <c r="B532">
-        <v>61.82040489522418</v>
+        <v>61.82040489522417</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>559</v>
       </c>
       <c r="B559">
-        <v>73.17632150127399</v>
+        <v>73.17632150127397</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>26.88563371629904</v>
+        <v>26.88563371629903</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>598</v>
       </c>
       <c r="B598">
-        <v>16.97570030790044</v>
+        <v>16.97570030790043</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5319,7 +5319,7 @@
         <v>622</v>
       </c>
       <c r="B622">
-        <v>15.60550528084705</v>
+        <v>15.60550528084704</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>640</v>
       </c>
       <c r="B640">
-        <v>0.7835371447026531</v>
+        <v>0.783537144702653</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5575,7 +5575,7 @@
         <v>654</v>
       </c>
       <c r="B654">
-        <v>66.37941797264007</v>
+        <v>66.37941797264006</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5607,7 +5607,7 @@
         <v>658</v>
       </c>
       <c r="B658">
-        <v>17.40109292051738</v>
+        <v>17.40109292051737</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>689</v>
       </c>
       <c r="B689">
-        <v>0.8651369139971314</v>
+        <v>0.8651369139971313</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>728</v>
       </c>
       <c r="B728">
-        <v>5.774935509717944</v>
+        <v>5.774935509717943</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>739</v>
       </c>
       <c r="B739">
-        <v>7.521140679373837</v>
+        <v>7.521140679373836</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6295,7 +6295,7 @@
         <v>744</v>
       </c>
       <c r="B744">
-        <v>20.25249828406907</v>
+        <v>20.25249828406906</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>45.14349051123899</v>
+        <v>45.14349051123898</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6567,7 +6567,7 @@
         <v>778</v>
       </c>
       <c r="B778">
-        <v>24.119248261063</v>
+        <v>24.11924826106299</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6671,7 +6671,7 @@
         <v>791</v>
       </c>
       <c r="B791">
-        <v>42.8938772184745</v>
+        <v>42.89387721847449</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6695,7 +6695,7 @@
         <v>794</v>
       </c>
       <c r="B794">
-        <v>60.50598128682805</v>
+        <v>60.50598128682804</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6927,7 +6927,7 @@
         <v>823</v>
       </c>
       <c r="B823">
-        <v>71.76283988181032</v>
+        <v>71.76283988181031</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6967,7 +6967,7 @@
         <v>828</v>
       </c>
       <c r="B828">
-        <v>5.806235496646975</v>
+        <v>5.806235496646974</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>839</v>
       </c>
       <c r="B839">
-        <v>28.35781746480657</v>
+        <v>28.35781746480656</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7127,7 +7127,7 @@
         <v>848</v>
       </c>
       <c r="B848">
-        <v>9.671959725005584</v>
+        <v>9.671959725005582</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7239,7 +7239,7 @@
         <v>862</v>
       </c>
       <c r="B862">
-        <v>7.734320552896099</v>
+        <v>7.734320552896098</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>876</v>
       </c>
       <c r="B876">
-        <v>0.6945871537585483</v>
+        <v>0.6945871537585482</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>886</v>
       </c>
       <c r="B886">
-        <v>8.564268427281164</v>
+        <v>8.564268427281162</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7471,7 +7471,7 @@
         <v>891</v>
       </c>
       <c r="B891">
-        <v>37.55646746237408</v>
+        <v>37.55646746237407</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>893</v>
       </c>
       <c r="B893">
-        <v>46.97782214222035</v>
+        <v>46.97782214222034</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>895</v>
       </c>
       <c r="B895">
-        <v>51.15584286937649</v>
+        <v>51.15584286937648</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7575,7 +7575,7 @@
         <v>904</v>
       </c>
       <c r="B904">
-        <v>7.195509448317216</v>
+        <v>7.195509448317215</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>911</v>
       </c>
       <c r="B911">
-        <v>35.71686055269682</v>
+        <v>35.71686055269681</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>62.80864043759024</v>
+        <v>62.80864043759023</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7823,7 +7823,7 @@
         <v>935</v>
       </c>
       <c r="B935">
-        <v>35.58703008256984</v>
+        <v>35.58703008256983</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7863,7 +7863,7 @@
         <v>940</v>
       </c>
       <c r="B940">
-        <v>55.70078853693663</v>
+        <v>55.70078853693662</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7967,7 +7967,7 @@
         <v>953</v>
       </c>
       <c r="B953">
-        <v>6.335814863508026</v>
+        <v>6.335814863508025</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -7983,7 +7983,7 @@
         <v>955</v>
       </c>
       <c r="B955">
-        <v>34.14248293300807</v>
+        <v>34.14248293300806</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8047,7 +8047,7 @@
         <v>963</v>
       </c>
       <c r="B963">
-        <v>69.65272840344863</v>
+        <v>69.65272840344862</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8055,7 +8055,7 @@
         <v>964</v>
       </c>
       <c r="B964">
-        <v>75.07718025803148</v>
+        <v>75.07718025803146</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>967</v>
       </c>
       <c r="B967">
-        <v>84.26173353863938</v>
+        <v>84.26173353863936</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>971</v>
       </c>
       <c r="B971">
-        <v>25.71821454089543</v>
+        <v>25.71821454089542</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8135,7 +8135,7 @@
         <v>974</v>
       </c>
       <c r="B974">
-        <v>27.51866715980754</v>
+        <v>27.51866715980753</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>61.00742583397761</v>
+        <v>61.0074258339776</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8223,7 +8223,7 @@
         <v>985</v>
       </c>
       <c r="B985">
-        <v>73.67043927245702</v>
+        <v>73.670439272457</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>988</v>
       </c>
       <c r="B988">
-        <v>80.75279399274709</v>
+        <v>80.75279399274707</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8279,7 +8279,7 @@
         <v>992</v>
       </c>
       <c r="B992">
-        <v>31.22085774859312</v>
+        <v>31.22085774859311</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8287,7 +8287,7 @@
         <v>993</v>
       </c>
       <c r="B993">
-        <v>33.98979292186551</v>
+        <v>33.9897929218655</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8375,7 +8375,7 @@
         <v>1004</v>
       </c>
       <c r="B1004">
-        <v>59.66222976652203</v>
+        <v>59.66222976652202</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>1006</v>
       </c>
       <c r="B1006">
-        <v>58.79092956858185</v>
+        <v>58.79092956858184</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8495,7 +8495,7 @@
         <v>1019</v>
       </c>
       <c r="B1019">
-        <v>23.37804229718459</v>
+        <v>23.37804229718458</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8535,7 +8535,7 @@
         <v>1024</v>
       </c>
       <c r="B1024">
-        <v>5.224430870696472</v>
+        <v>5.224430870696471</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8575,7 +8575,7 @@
         <v>1029</v>
       </c>
       <c r="B1029">
-        <v>32.08893416510802</v>
+        <v>32.08893416510801</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>1037</v>
       </c>
       <c r="B1037">
-        <v>55.1937756400525</v>
+        <v>55.19377564005249</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>1055</v>
       </c>
       <c r="B1055">
-        <v>16.95172709693794</v>
+        <v>16.95172709693793</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8791,7 +8791,7 @@
         <v>1056</v>
       </c>
       <c r="B1056">
-        <v>23.54696844386899</v>
+        <v>23.54696844386898</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>1060</v>
       </c>
       <c r="B1060">
-        <v>42.28722016844552</v>
+        <v>42.28722016844551</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>1061</v>
       </c>
       <c r="B1061">
-        <v>45.05644841275657</v>
+        <v>45.05644841275656</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8847,7 +8847,7 @@
         <v>1063</v>
       </c>
       <c r="B1063">
-        <v>46.3966622725549</v>
+        <v>46.39666227255489</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8911,7 +8911,7 @@
         <v>1071</v>
       </c>
       <c r="B1071">
-        <v>0.2979975628212425</v>
+        <v>0.2979975628212424</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -8943,7 +8943,7 @@
         <v>1075</v>
       </c>
       <c r="B1075">
-        <v>3.576345884784397</v>
+        <v>3.576345884784396</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -9055,7 +9055,7 @@
         <v>1089</v>
       </c>
       <c r="B1089">
-        <v>14.47173066068177</v>
+        <v>14.47173066068176</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9111,7 +9111,7 @@
         <v>1096</v>
       </c>
       <c r="B1096">
-        <v>0.977063674372286</v>
+        <v>0.9770636743722858</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>0.4526423577916746</v>
+        <v>0.4526423577916745</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9151,7 +9151,7 @@
         <v>1101</v>
       </c>
       <c r="B1101">
-        <v>9.827258068392233</v>
+        <v>9.827258068392229</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9343,7 +9343,7 @@
         <v>1125</v>
       </c>
       <c r="B1125">
-        <v>29.13184738501505</v>
+        <v>29.13184738501504</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9439,7 +9439,7 @@
         <v>1137</v>
       </c>
       <c r="B1137">
-        <v>6.4125115543257</v>
+        <v>6.412511554325699</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
@@ -9623,7 +9623,7 @@
         <v>1160</v>
       </c>
       <c r="B1160">
-        <v>0.8511574254529853</v>
+        <v>0.8511574254529852</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -9735,7 +9735,7 @@
         <v>1174</v>
       </c>
       <c r="B1174">
-        <v>6.502923969752725</v>
+        <v>6.502923969752724</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -9759,7 +9759,7 @@
         <v>1177</v>
       </c>
       <c r="B1177">
-        <v>19.16558572298574</v>
+        <v>19.16558572298573</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
@@ -9791,7 +9791,7 @@
         <v>1181</v>
       </c>
       <c r="B1181">
-        <v>37.1590631339493</v>
+        <v>37.15906313394929</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
@@ -9967,7 +9967,7 @@
         <v>1203</v>
       </c>
       <c r="B1203">
-        <v>42.5140571523694</v>
+        <v>42.51405715236939</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
@@ -9975,7 +9975,7 @@
         <v>1204</v>
       </c>
       <c r="B1204">
-        <v>45.47202314557836</v>
+        <v>45.47202314557835</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
@@ -10055,7 +10055,7 @@
         <v>1214</v>
       </c>
       <c r="B1214">
-        <v>5.467650525681523</v>
+        <v>5.467650525681522</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
@@ -10071,7 +10071,7 @@
         <v>1216</v>
       </c>
       <c r="B1216">
-        <v>2.360429313903115</v>
+        <v>2.360429313903114</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
@@ -10135,7 +10135,7 @@
         <v>1224</v>
       </c>
       <c r="B1224">
-        <v>24.42990356204402</v>
+        <v>24.42990356204401</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
@@ -10143,7 +10143,7 @@
         <v>1225</v>
       </c>
       <c r="B1225">
-        <v>30.69215759484805</v>
+        <v>30.69215759484804</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
@@ -10255,7 +10255,7 @@
         <v>1239</v>
       </c>
       <c r="B1239">
-        <v>7.13012529959187</v>
+        <v>7.130125299591869</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
@@ -10279,7 +10279,7 @@
         <v>1242</v>
       </c>
       <c r="B1242">
-        <v>9.24847207413994</v>
+        <v>9.248472074139938</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10287,7 +10287,7 @@
         <v>1243</v>
       </c>
       <c r="B1243">
-        <v>35.52841587483757</v>
+        <v>35.52841587483756</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -10303,7 +10303,7 @@
         <v>1245</v>
       </c>
       <c r="B1245">
-        <v>27.92459985545737</v>
+        <v>27.92459985545736</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
@@ -10703,7 +10703,7 @@
         <v>1295</v>
       </c>
       <c r="B1295">
-        <v>31.4605898582181</v>
+        <v>31.46058985821809</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
@@ -10783,7 +10783,7 @@
         <v>1305</v>
       </c>
       <c r="B1305">
-        <v>5.471548370495719</v>
+        <v>5.471548370495718</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
@@ -10791,7 +10791,7 @@
         <v>1306</v>
       </c>
       <c r="B1306">
-        <v>3.918682165044713</v>
+        <v>3.918682165044714</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
@@ -10815,7 +10815,7 @@
         <v>1309</v>
       </c>
       <c r="B1309">
-        <v>0.6810853710074201</v>
+        <v>0.6810853710074199</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
@@ -10863,7 +10863,7 @@
         <v>1315</v>
       </c>
       <c r="B1315">
-        <v>6.836087126502942</v>
+        <v>6.836087126502941</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
@@ -11319,7 +11319,7 @@
         <v>1372</v>
       </c>
       <c r="B1372">
-        <v>27.95355527407711</v>
+        <v>27.9535552740771</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
@@ -11351,7 +11351,7 @@
         <v>1376</v>
       </c>
       <c r="B1376">
-        <v>0.7211716276755188</v>
+        <v>0.7211716276755187</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
@@ -11695,7 +11695,7 @@
         <v>1419</v>
       </c>
       <c r="B1419">
-        <v>58.75048576524659</v>
+        <v>58.75048576524658</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -11719,7 +11719,7 @@
         <v>1422</v>
       </c>
       <c r="B1422">
-        <v>80.86269563224509</v>
+        <v>80.86269563224508</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
@@ -11895,7 +11895,7 @@
         <v>1444</v>
       </c>
       <c r="B1444">
-        <v>75.82099455415397</v>
+        <v>75.82099455415396</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
@@ -11951,7 +11951,7 @@
         <v>1451</v>
       </c>
       <c r="B1451">
-        <v>23.27772408065081</v>
+        <v>23.2777240806508</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
@@ -12159,7 +12159,7 @@
         <v>1477</v>
       </c>
       <c r="B1477">
-        <v>1.547631956700513</v>
+        <v>1.547631956700512</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
@@ -12215,7 +12215,7 @@
         <v>1484</v>
       </c>
       <c r="B1484">
-        <v>25.72050049499699</v>
+        <v>25.72050049499698</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -12247,7 +12247,7 @@
         <v>1488</v>
       </c>
       <c r="B1488">
-        <v>44.76630808448184</v>
+        <v>44.76630808448183</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
@@ -12279,7 +12279,7 @@
         <v>1492</v>
       </c>
       <c r="B1492">
-        <v>61.66507724473367</v>
+        <v>61.66507724473366</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
@@ -12359,7 +12359,7 @@
         <v>1502</v>
       </c>
       <c r="B1502">
-        <v>0.7109874090820371</v>
+        <v>0.7109874090820369</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
@@ -12367,7 +12367,7 @@
         <v>1503</v>
       </c>
       <c r="B1503">
-        <v>0.5091493847559686</v>
+        <v>0.5091493847559685</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
@@ -12383,7 +12383,7 @@
         <v>1505</v>
       </c>
       <c r="B1505">
-        <v>0.2149582285848596</v>
+        <v>0.2149582285848595</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
@@ -12607,7 +12607,7 @@
         <v>1533</v>
       </c>
       <c r="B1533">
-        <v>4.53026280852321</v>
+        <v>4.530262808523209</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
@@ -12743,7 +12743,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>0.435746812412848</v>
+        <v>0.4357468124128479</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12871,7 +12871,7 @@
         <v>1566</v>
       </c>
       <c r="B1566">
-        <v>46.19034026133731</v>
+        <v>46.1903402613373</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
@@ -12879,7 +12879,7 @@
         <v>1567</v>
       </c>
       <c r="B1567">
-        <v>46.69999079756939</v>
+        <v>46.69999079756938</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
@@ -12895,7 +12895,7 @@
         <v>1569</v>
       </c>
       <c r="B1569">
-        <v>3.78255066758652</v>
+        <v>3.782550667586519</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
@@ -12903,7 +12903,7 @@
         <v>1570</v>
       </c>
       <c r="B1570">
-        <v>3.064614544177822</v>
+        <v>3.064614544177821</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
@@ -13079,7 +13079,7 @@
         <v>1592</v>
       </c>
       <c r="B1592">
-        <v>3.414043143573744</v>
+        <v>3.414043143573743</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
@@ -13279,7 +13279,7 @@
         <v>1617</v>
       </c>
       <c r="B1617">
-        <v>5.1641754651477</v>
+        <v>5.164175465147699</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
@@ -13423,7 +13423,7 @@
         <v>1635</v>
       </c>
       <c r="B1635">
-        <v>31.69592590226316</v>
+        <v>31.69592590226315</v>
       </c>
     </row>
     <row r="1636" spans="1:2">
@@ -13431,7 +13431,7 @@
         <v>1636</v>
       </c>
       <c r="B1636">
-        <v>35.37543279265635</v>
+        <v>35.37543279265634</v>
       </c>
     </row>
     <row r="1637" spans="1:2">
@@ -13623,7 +13623,7 @@
         <v>1660</v>
       </c>
       <c r="B1660">
-        <v>25.57543033085962</v>
+        <v>25.57543033085961</v>
       </c>
     </row>
     <row r="1661" spans="1:2">
@@ -14079,7 +14079,7 @@
         <v>1717</v>
       </c>
       <c r="B1717">
-        <v>0.8847052672485495</v>
+        <v>0.8847052672485494</v>
       </c>
     </row>
     <row r="1718" spans="1:2">
@@ -14159,7 +14159,7 @@
         <v>1727</v>
       </c>
       <c r="B1727">
-        <v>7.79026781417655</v>
+        <v>7.790267814176549</v>
       </c>
     </row>
     <row r="1728" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>27.647735645234</v>
+        <v>27.64773564523399</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14655,7 +14655,7 @@
         <v>1789</v>
       </c>
       <c r="B1789">
-        <v>0.4740570585866591</v>
+        <v>0.474057058586659</v>
       </c>
     </row>
     <row r="1790" spans="1:2">
@@ -14695,7 +14695,7 @@
         <v>1794</v>
       </c>
       <c r="B1794">
-        <v>5.226599596382567</v>
+        <v>5.226599596382566</v>
       </c>
     </row>
     <row r="1795" spans="1:2">
@@ -14711,7 +14711,7 @@
         <v>1796</v>
       </c>
       <c r="B1796">
-        <v>4.329626375455653</v>
+        <v>4.329626375455652</v>
       </c>
     </row>
     <row r="1797" spans="1:2">
@@ -14751,7 +14751,7 @@
         <v>1801</v>
       </c>
       <c r="B1801">
-        <v>19.67529487342555</v>
+        <v>19.67529487342554</v>
       </c>
     </row>
     <row r="1802" spans="1:2">
@@ -14783,7 +14783,7 @@
         <v>1805</v>
       </c>
       <c r="B1805">
-        <v>31.83484157458864</v>
+        <v>31.83484157458863</v>
       </c>
     </row>
     <row r="1806" spans="1:2">
@@ -14871,7 +14871,7 @@
         <v>1816</v>
       </c>
       <c r="B1816">
-        <v>0.5207930971219839</v>
+        <v>0.5207930971219837</v>
       </c>
     </row>
     <row r="1817" spans="1:2">
@@ -14943,7 +14943,7 @@
         <v>1825</v>
       </c>
       <c r="B1825">
-        <v>30.55734491706383</v>
+        <v>30.55734491706382</v>
       </c>
     </row>
     <row r="1826" spans="1:2">
@@ -14999,7 +14999,7 @@
         <v>1832</v>
       </c>
       <c r="B1832">
-        <v>6.103321608537981</v>
+        <v>6.10332160853798</v>
       </c>
     </row>
     <row r="1833" spans="1:2">
@@ -15007,7 +15007,7 @@
         <v>1833</v>
       </c>
       <c r="B1833">
-        <v>5.131732501167889</v>
+        <v>5.131732501167888</v>
       </c>
     </row>
     <row r="1834" spans="1:2">
@@ -15015,7 +15015,7 @@
         <v>1834</v>
       </c>
       <c r="B1834">
-        <v>2.527180873480647</v>
+        <v>2.527180873480646</v>
       </c>
     </row>
     <row r="1835" spans="1:2">
@@ -15287,7 +15287,7 @@
         <v>1868</v>
       </c>
       <c r="B1868">
-        <v>0.3559699449788432</v>
+        <v>0.3559699449788431</v>
       </c>
     </row>
     <row r="1869" spans="1:2">
@@ -15319,7 +15319,7 @@
         <v>1872</v>
       </c>
       <c r="B1872">
-        <v>9.606077355514516</v>
+        <v>9.606077355514511</v>
       </c>
     </row>
     <row r="1873" spans="1:2">
@@ -15503,7 +15503,7 @@
         <v>1895</v>
       </c>
       <c r="B1895">
-        <v>7.875053265661277</v>
+        <v>7.875053265661276</v>
       </c>
     </row>
     <row r="1896" spans="1:2">
@@ -15527,7 +15527,7 @@
         <v>1898</v>
       </c>
       <c r="B1898">
-        <v>21.40564489988987</v>
+        <v>21.40564489988986</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
@@ -15535,7 +15535,7 @@
         <v>1899</v>
       </c>
       <c r="B1899">
-        <v>25.33065739936967</v>
+        <v>25.33065739936966</v>
       </c>
     </row>
     <row r="1900" spans="1:2">
@@ -15607,7 +15607,7 @@
         <v>1908</v>
       </c>
       <c r="B1908">
-        <v>0.9834789994085829</v>
+        <v>0.9834789994085826</v>
       </c>
     </row>
     <row r="1909" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>0.1686966720611276</v>
+        <v>0.1686966720611275</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15679,7 +15679,7 @@
         <v>1917</v>
       </c>
       <c r="B1917">
-        <v>7.225109623222012</v>
+        <v>7.225109623222011</v>
       </c>
     </row>
     <row r="1918" spans="1:2">
@@ -15695,7 +15695,7 @@
         <v>1919</v>
       </c>
       <c r="B1919">
-        <v>16.72732260263495</v>
+        <v>16.72732260263494</v>
       </c>
     </row>
     <row r="1920" spans="1:2">
@@ -15743,7 +15743,7 @@
         <v>1925</v>
       </c>
       <c r="B1925">
-        <v>37.64556105812713</v>
+        <v>37.64556105812712</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
@@ -16063,7 +16063,7 @@
         <v>1965</v>
       </c>
       <c r="B1965">
-        <v>5.155998783169048</v>
+        <v>5.155998783169047</v>
       </c>
     </row>
     <row r="1966" spans="1:2">
@@ -16071,7 +16071,7 @@
         <v>1966</v>
       </c>
       <c r="B1966">
-        <v>7.194454392578035</v>
+        <v>7.194454392578034</v>
       </c>
     </row>
     <row r="1967" spans="1:2">
@@ -16167,7 +16167,7 @@
         <v>1978</v>
       </c>
       <c r="B1978">
-        <v>9.215823960433069</v>
+        <v>9.215823960433063</v>
       </c>
     </row>
     <row r="1979" spans="1:2">
@@ -16279,7 +16279,7 @@
         <v>1992</v>
       </c>
       <c r="B1992">
-        <v>8.405042931976455</v>
+        <v>8.405042931976453</v>
       </c>
     </row>
     <row r="1993" spans="1:2">
@@ -16391,7 +16391,7 @@
         <v>2006</v>
       </c>
       <c r="B2006">
-        <v>0.700858873985901</v>
+        <v>0.7008588739859009</v>
       </c>
     </row>
     <row r="2007" spans="1:2">
@@ -16415,7 +16415,7 @@
         <v>2009</v>
       </c>
       <c r="B2009">
-        <v>0.6560395200434215</v>
+        <v>0.6560395200434214</v>
       </c>
     </row>
     <row r="2010" spans="1:2">
@@ -16439,7 +16439,7 @@
         <v>2012</v>
       </c>
       <c r="B2012">
-        <v>6.88394562711634</v>
+        <v>6.883945627116339</v>
       </c>
     </row>
     <row r="2013" spans="1:2">
@@ -16503,7 +16503,7 @@
         <v>2020</v>
       </c>
       <c r="B2020">
-        <v>25.05095040007128</v>
+        <v>25.05095040007127</v>
       </c>
     </row>
     <row r="2021" spans="1:2">
@@ -16559,7 +16559,7 @@
         <v>2027</v>
       </c>
       <c r="B2027">
-        <v>3.204262894099953</v>
+        <v>3.204262894099952</v>
       </c>
     </row>
     <row r="2028" spans="1:2">
@@ -16647,7 +16647,7 @@
         <v>2038</v>
       </c>
       <c r="B2038">
-        <v>3.397103637539118</v>
+        <v>3.397103637539117</v>
       </c>
     </row>
     <row r="2039" spans="1:2">
@@ -16775,7 +16775,7 @@
         <v>2054</v>
       </c>
       <c r="B2054">
-        <v>0.4239917330521415</v>
+        <v>0.4239917330521414</v>
       </c>
     </row>
     <row r="2055" spans="1:2">
@@ -16807,7 +16807,7 @@
         <v>2058</v>
       </c>
       <c r="B2058">
-        <v>0.4593419617354729</v>
+        <v>0.4593419617354728</v>
       </c>
     </row>
     <row r="2059" spans="1:2">
@@ -17087,7 +17087,7 @@
         <v>2093</v>
       </c>
       <c r="B2093">
-        <v>38.4532648406778</v>
+        <v>38.45326484067779</v>
       </c>
     </row>
     <row r="2094" spans="1:2">
@@ -17143,7 +17143,7 @@
         <v>2100</v>
       </c>
       <c r="B2100">
-        <v>6.604267934921818</v>
+        <v>6.604267934921817</v>
       </c>
     </row>
     <row r="2101" spans="1:2">
@@ -17175,7 +17175,7 @@
         <v>2104</v>
       </c>
       <c r="B2104">
-        <v>0.8637213808803972</v>
+        <v>0.8637213808803971</v>
       </c>
     </row>
     <row r="2105" spans="1:2">
@@ -17255,7 +17255,7 @@
         <v>2114</v>
       </c>
       <c r="B2114">
-        <v>37.37798719982932</v>
+        <v>37.37798719982931</v>
       </c>
     </row>
     <row r="2115" spans="1:2">
@@ -17311,7 +17311,7 @@
         <v>2121</v>
       </c>
       <c r="B2121">
-        <v>3.038062308075104</v>
+        <v>3.038062308075103</v>
       </c>
     </row>
     <row r="2122" spans="1:2">
@@ -17479,7 +17479,7 @@
         <v>2142</v>
       </c>
       <c r="B2142">
-        <v>38.27244000982375</v>
+        <v>38.27244000982374</v>
       </c>
     </row>
     <row r="2143" spans="1:2">
@@ -17703,7 +17703,7 @@
         <v>2170</v>
       </c>
       <c r="B2170">
-        <v>0.8201768859560945</v>
+        <v>0.8201768859560944</v>
       </c>
     </row>
     <row r="2171" spans="1:2">
@@ -17711,7 +17711,7 @@
         <v>2171</v>
       </c>
       <c r="B2171">
-        <v>0.4395596666258321</v>
+        <v>0.439559666625832</v>
       </c>
     </row>
     <row r="2172" spans="1:2">
@@ -17975,7 +17975,7 @@
         <v>2204</v>
       </c>
       <c r="B2204">
-        <v>0.6937489705879768</v>
+        <v>0.6937489705879767</v>
       </c>
     </row>
     <row r="2205" spans="1:2">
@@ -18015,7 +18015,7 @@
         <v>2209</v>
       </c>
       <c r="B2209">
-        <v>18.88880943407397</v>
+        <v>18.88880943407396</v>
       </c>
     </row>
     <row r="2210" spans="1:2">
@@ -18167,7 +18167,7 @@
         <v>2228</v>
       </c>
       <c r="B2228">
-        <v>5.710694338043377</v>
+        <v>5.710694338043376</v>
       </c>
     </row>
     <row r="2229" spans="1:2">
@@ -18303,7 +18303,7 @@
         <v>2245</v>
       </c>
       <c r="B2245">
-        <v>0.5162973873889188</v>
+        <v>0.5162973873889187</v>
       </c>
     </row>
     <row r="2246" spans="1:2">
@@ -18343,7 +18343,7 @@
         <v>2250</v>
       </c>
       <c r="B2250">
-        <v>0.7888094926881708</v>
+        <v>0.7888094926881707</v>
       </c>
     </row>
     <row r="2251" spans="1:2">
@@ -18447,7 +18447,7 @@
         <v>2263</v>
       </c>
       <c r="B2263">
-        <v>5.297317638011549</v>
+        <v>5.297317638011548</v>
       </c>
     </row>
     <row r="2264" spans="1:2">
@@ -18567,7 +18567,7 @@
         <v>2278</v>
       </c>
       <c r="B2278">
-        <v>8.624113533375811</v>
+        <v>8.624113533375809</v>
       </c>
     </row>
     <row r="2279" spans="1:2">
@@ -18639,7 +18639,7 @@
         <v>2287</v>
       </c>
       <c r="B2287">
-        <v>0.6195990670962698</v>
+        <v>0.6195990670962697</v>
       </c>
     </row>
     <row r="2288" spans="1:2">
@@ -18767,7 +18767,7 @@
         <v>2303</v>
       </c>
       <c r="B2303">
-        <v>14.39787675893911</v>
+        <v>14.3978767589391</v>
       </c>
     </row>
     <row r="2304" spans="1:2">
@@ -18959,7 +18959,7 @@
         <v>2327</v>
       </c>
       <c r="B2327">
-        <v>4.800298463545773</v>
+        <v>4.800298463545772</v>
       </c>
     </row>
     <row r="2328" spans="1:2">
@@ -18967,7 +18967,7 @@
         <v>2328</v>
       </c>
       <c r="B2328">
-        <v>8.382124776753137</v>
+        <v>8.382124776753136</v>
       </c>
     </row>
     <row r="2329" spans="1:2">
@@ -19727,7 +19727,7 @@
         <v>2423</v>
       </c>
       <c r="B2423">
-        <v>3.761478859906769</v>
+        <v>3.761478859906768</v>
       </c>
     </row>
     <row r="2424" spans="1:2">
@@ -19735,7 +19735,7 @@
         <v>2424</v>
       </c>
       <c r="B2424">
-        <v>8.533730425052651</v>
+        <v>8.533730425052649</v>
       </c>
     </row>
     <row r="2425" spans="1:2">
@@ -19791,7 +19791,7 @@
         <v>2431</v>
       </c>
       <c r="B2431">
-        <v>0.549133066560536</v>
+        <v>0.5491330665605358</v>
       </c>
     </row>
     <row r="2432" spans="1:2">
@@ -19823,7 +19823,7 @@
         <v>2435</v>
       </c>
       <c r="B2435">
-        <v>0.9348966133296917</v>
+        <v>0.9348966133296914</v>
       </c>
     </row>
     <row r="2436" spans="1:2">
@@ -19839,7 +19839,7 @@
         <v>2437</v>
       </c>
       <c r="B2437">
-        <v>0.3470488625619919</v>
+        <v>0.3470488625619918</v>
       </c>
     </row>
     <row r="2438" spans="1:2">
@@ -20007,7 +20007,7 @@
         <v>2458</v>
       </c>
       <c r="B2458">
-        <v>0.4955098586166696</v>
+        <v>0.4955098586166695</v>
       </c>
     </row>
     <row r="2459" spans="1:2">
@@ -20199,7 +20199,7 @@
         <v>2482</v>
       </c>
       <c r="B2482">
-        <v>0.3911560538805244</v>
+        <v>0.3911560538805243</v>
       </c>
     </row>
     <row r="2483" spans="1:2">
@@ -20935,7 +20935,7 @@
         <v>2574</v>
       </c>
       <c r="B2574">
-        <v>0.5077367823496209</v>
+        <v>0.5077367823496208</v>
       </c>
     </row>
     <row r="2575" spans="1:2">
@@ -21095,7 +21095,7 @@
         <v>2594</v>
       </c>
       <c r="B2594">
-        <v>0.9383343366131892</v>
+        <v>0.938334336613189</v>
       </c>
     </row>
     <row r="2595" spans="1:2">
@@ -21271,7 +21271,7 @@
         <v>2616</v>
       </c>
       <c r="B2616">
-        <v>0.3131229591265546</v>
+        <v>0.3131229591265545</v>
       </c>
     </row>
     <row r="2617" spans="1:2">
@@ -21295,7 +21295,7 @@
         <v>2619</v>
       </c>
       <c r="B2619">
-        <v>9.79185508692194</v>
+        <v>9.791855086921938</v>
       </c>
     </row>
     <row r="2620" spans="1:2">
@@ -21343,7 +21343,7 @@
         <v>2625</v>
       </c>
       <c r="B2625">
-        <v>0.497523256652273</v>
+        <v>0.4975232566522729</v>
       </c>
     </row>
     <row r="2626" spans="1:2">
@@ -21567,7 +21567,7 @@
         <v>2653</v>
       </c>
       <c r="B2653">
-        <v>0.6105167956081547</v>
+        <v>0.6105167956081546</v>
       </c>
     </row>
     <row r="2654" spans="1:2">
@@ -21903,7 +21903,7 @@
         <v>2695</v>
       </c>
       <c r="B2695">
-        <v>0.3488629722913056</v>
+        <v>0.3488629722913055</v>
       </c>
     </row>
     <row r="2696" spans="1:2">
@@ -22831,7 +22831,7 @@
         <v>2811</v>
       </c>
       <c r="B2811">
-        <v>0.8151302026703462</v>
+        <v>0.8151302026703461</v>
       </c>
     </row>
     <row r="2812" spans="1:2">
@@ -22855,7 +22855,7 @@
         <v>2814</v>
       </c>
       <c r="B2814">
-        <v>6.147575335375844</v>
+        <v>6.147575335375843</v>
       </c>
     </row>
     <row r="2815" spans="1:2">
@@ -23063,7 +23063,7 @@
         <v>2840</v>
       </c>
       <c r="B2840">
-        <v>0.4817560347722926</v>
+        <v>0.4817560347722925</v>
       </c>
     </row>
     <row r="2841" spans="1:2">
@@ -23071,7 +23071,7 @@
         <v>2841</v>
       </c>
       <c r="B2841">
-        <v>0.5499653883103341</v>
+        <v>0.549965388310334</v>
       </c>
     </row>
     <row r="2842" spans="1:2">
@@ -23191,7 +23191,7 @@
         <v>2856</v>
       </c>
       <c r="B2856">
-        <v>7.305616237542283</v>
+        <v>7.305616237542282</v>
       </c>
     </row>
     <row r="2857" spans="1:2">
@@ -23255,7 +23255,7 @@
         <v>2864</v>
       </c>
       <c r="B2864">
-        <v>0.9855656652038516</v>
+        <v>0.9855656652038514</v>
       </c>
     </row>
     <row r="2865" spans="1:2">
@@ -23279,7 +23279,7 @@
         <v>2867</v>
       </c>
       <c r="B2867">
-        <v>0.4778904277723495</v>
+        <v>0.4778904277723494</v>
       </c>
     </row>
     <row r="2868" spans="1:2">
@@ -23679,7 +23679,7 @@
         <v>2917</v>
       </c>
       <c r="B2917">
-        <v>0.3749785325464181</v>
+        <v>0.374978532546418</v>
       </c>
     </row>
     <row r="2918" spans="1:2">
@@ -23831,7 +23831,7 @@
         <v>2936</v>
       </c>
       <c r="B2936">
-        <v>0.4352749680406033</v>
+        <v>0.4352749680406032</v>
       </c>
     </row>
     <row r="2937" spans="1:2">
@@ -25111,7 +25111,7 @@
         <v>3096</v>
       </c>
       <c r="B3096">
-        <v>0.1203159188568354</v>
+        <v>0.1203159188568353</v>
       </c>
     </row>
     <row r="3097" spans="1:2">
@@ -25183,7 +25183,7 @@
         <v>3105</v>
       </c>
       <c r="B3105">
-        <v>0.0931239086767198</v>
+        <v>0.0931239086767197</v>
       </c>
     </row>
     <row r="3106" spans="1:2">
@@ -25367,7 +25367,7 @@
         <v>3128</v>
       </c>
       <c r="B3128">
-        <v>0.158192126822389</v>
+        <v>0.1581921268223889</v>
       </c>
     </row>
     <row r="3129" spans="1:2">
@@ -25519,7 +25519,7 @@
         <v>3147</v>
       </c>
       <c r="B3147">
-        <v>6.491787270283594</v>
+        <v>6.491787270283593</v>
       </c>
     </row>
     <row r="3148" spans="1:2">
@@ -25695,7 +25695,7 @@
         <v>3169</v>
       </c>
       <c r="B3169">
-        <v>0.7981731123734007</v>
+        <v>0.7981731123734006</v>
       </c>
     </row>
     <row r="3170" spans="1:2">
@@ -25711,7 +25711,7 @@
         <v>3171</v>
       </c>
       <c r="B3171">
-        <v>7.058850422989431</v>
+        <v>7.05885042298943</v>
       </c>
     </row>
     <row r="3172" spans="1:2">
@@ -25759,7 +25759,7 @@
         <v>3177</v>
       </c>
       <c r="B3177">
-        <v>0.4656283355147588</v>
+        <v>0.4656283355147587</v>
       </c>
     </row>
     <row r="3178" spans="1:2">
@@ -26295,7 +26295,7 @@
         <v>3244</v>
       </c>
       <c r="B3244">
-        <v>3.030823453420169</v>
+        <v>3.030823453420168</v>
       </c>
     </row>
     <row r="3245" spans="1:2">
@@ -26303,7 +26303,7 @@
         <v>3245</v>
       </c>
       <c r="B3245">
-        <v>4.286984539330427</v>
+        <v>4.286984539330426</v>
       </c>
     </row>
     <row r="3246" spans="1:2">
@@ -27255,7 +27255,7 @@
         <v>3364</v>
       </c>
       <c r="B3364">
-        <v>2.013491818335814</v>
+        <v>2.013491818335813</v>
       </c>
     </row>
     <row r="3365" spans="1:2">
@@ -28007,7 +28007,7 @@
         <v>3458</v>
       </c>
       <c r="B3458">
-        <v>7.361856569861396</v>
+        <v>7.361856569861395</v>
       </c>
     </row>
     <row r="3459" spans="1:2">
@@ -28047,7 +28047,7 @@
         <v>3463</v>
       </c>
       <c r="B3463">
-        <v>0.3315424739064201</v>
+        <v>0.33154247390642</v>
       </c>
     </row>
     <row r="3464" spans="1:2">
@@ -32247,7 +32247,7 @@
         <v>3988</v>
       </c>
       <c r="B3988">
-        <v>0.5304146193212358</v>
+        <v>0.5304146193212357</v>
       </c>
     </row>
     <row r="3989" spans="1:2">
@@ -32263,7 +32263,7 @@
         <v>3990</v>
       </c>
       <c r="B3990">
-        <v>0.4548843512374339</v>
+        <v>0.4548843512374338</v>
       </c>
     </row>
     <row r="3991" spans="1:2">
@@ -42823,7 +42823,7 @@
         <v>5310</v>
       </c>
       <c r="B5310">
-        <v>0.4574487228257207</v>
+        <v>0.4574487228257206</v>
       </c>
     </row>
     <row r="5311" spans="1:2">
@@ -43015,7 +43015,7 @@
         <v>5334</v>
       </c>
       <c r="B5334">
-        <v>0.1333778019789329</v>
+        <v>0.1333778019789328</v>
       </c>
     </row>
     <row r="5335" spans="1:2">
@@ -46839,7 +46839,7 @@
         <v>5812</v>
       </c>
       <c r="B5812">
-        <v>0.1514148590533454</v>
+        <v>0.1514148590533453</v>
       </c>
     </row>
     <row r="5813" spans="1:2">
@@ -50671,7 +50671,7 @@
         <v>6291</v>
       </c>
       <c r="B6291">
-        <v>0.9833295331788656</v>
+        <v>0.9833295331788654</v>
       </c>
     </row>
     <row r="6292" spans="1:2">
@@ -50687,7 +50687,7 @@
         <v>6293</v>
       </c>
       <c r="B6293">
-        <v>5.416451015227386</v>
+        <v>5.416451015227385</v>
       </c>
     </row>
     <row r="6294" spans="1:2">
@@ -50879,7 +50879,7 @@
         <v>6317</v>
       </c>
       <c r="B6317">
-        <v>10.64718291325508</v>
+        <v>10.64718291325507</v>
       </c>
     </row>
     <row r="6318" spans="1:2">
@@ -50903,7 +50903,7 @@
         <v>6320</v>
       </c>
       <c r="B6320">
-        <v>0.5229735456496243</v>
+        <v>0.5229735456496242</v>
       </c>
     </row>
     <row r="6321" spans="1:2">
@@ -51447,7 +51447,7 @@
         <v>6388</v>
       </c>
       <c r="B6388">
-        <v>2.329806321073391</v>
+        <v>2.32980632107339</v>
       </c>
     </row>
     <row r="6389" spans="1:2">
@@ -51487,7 +51487,7 @@
         <v>6393</v>
       </c>
       <c r="B6393">
-        <v>0.2724951071790096</v>
+        <v>0.2724951071790095</v>
       </c>
     </row>
     <row r="6394" spans="1:2">
@@ -51495,7 +51495,7 @@
         <v>6394</v>
       </c>
       <c r="B6394">
-        <v>0.2283802960134719</v>
+        <v>0.2283802960134718</v>
       </c>
     </row>
     <row r="6395" spans="1:2">
@@ -52423,7 +52423,7 @@
         <v>6510</v>
       </c>
       <c r="B6510">
-        <v>0.1946847464144224</v>
+        <v>0.1946847464144223</v>
       </c>
     </row>
     <row r="6511" spans="1:2">
@@ -53007,7 +53007,7 @@
         <v>6583</v>
       </c>
       <c r="B6583">
-        <v>0.2498665061418898</v>
+        <v>0.2498665061418897</v>
       </c>
     </row>
     <row r="6584" spans="1:2">
@@ -53015,7 +53015,7 @@
         <v>6584</v>
       </c>
       <c r="B6584">
-        <v>0.6585423467135894</v>
+        <v>0.6585423467135892</v>
       </c>
     </row>
     <row r="6585" spans="1:2">
@@ -53223,7 +53223,7 @@
         <v>6610</v>
       </c>
       <c r="B6610">
-        <v>1.119475684188994</v>
+        <v>1.119475684188993</v>
       </c>
     </row>
     <row r="6611" spans="1:2">
@@ -53239,7 +53239,7 @@
         <v>6612</v>
       </c>
       <c r="B6612">
-        <v>0.3143626496200921</v>
+        <v>0.314362649620092</v>
       </c>
     </row>
     <row r="6613" spans="1:2">
@@ -54575,7 +54575,7 @@
         <v>6779</v>
       </c>
       <c r="B6779">
-        <v>0.3958129526848531</v>
+        <v>0.395812952684853</v>
       </c>
     </row>
     <row r="6780" spans="1:2">
@@ -54671,7 +54671,7 @@
         <v>6791</v>
       </c>
       <c r="B6791">
-        <v>0.7280265592698077</v>
+        <v>0.7280265592698076</v>
       </c>
     </row>
     <row r="6792" spans="1:2">
@@ -54759,7 +54759,7 @@
         <v>6802</v>
       </c>
       <c r="B6802">
-        <v>0.8621212130093062</v>
+        <v>0.8621212130093061</v>
       </c>
     </row>
     <row r="6803" spans="1:2">
@@ -54767,7 +54767,7 @@
         <v>6803</v>
       </c>
       <c r="B6803">
-        <v>0.5625791658143184</v>
+        <v>0.5625791658143183</v>
       </c>
     </row>
     <row r="6804" spans="1:2">
@@ -54863,7 +54863,7 @@
         <v>6815</v>
       </c>
       <c r="B6815">
-        <v>5.198728540605872</v>
+        <v>5.198728540605871</v>
       </c>
     </row>
     <row r="6816" spans="1:2">
@@ -54919,7 +54919,7 @@
         <v>6822</v>
       </c>
       <c r="B6822">
-        <v>28.00150169600211</v>
+        <v>28.0015016960021</v>
       </c>
     </row>
     <row r="6823" spans="1:2">
@@ -54951,7 +54951,7 @@
         <v>6826</v>
       </c>
       <c r="B6826">
-        <v>1.519494206278637</v>
+        <v>1.519494206278636</v>
       </c>
     </row>
     <row r="6827" spans="1:2">
@@ -55031,7 +55031,7 @@
         <v>6836</v>
       </c>
       <c r="B6836">
-        <v>0.98694309908556</v>
+        <v>0.9869430990855598</v>
       </c>
     </row>
     <row r="6837" spans="1:2">
@@ -55047,7 +55047,7 @@
         <v>6838</v>
       </c>
       <c r="B6838">
-        <v>3.933951166158971</v>
+        <v>3.93395116615897</v>
       </c>
     </row>
     <row r="6839" spans="1:2">
@@ -55247,7 +55247,7 @@
         <v>6863</v>
       </c>
       <c r="B6863">
-        <v>5.418736969328944</v>
+        <v>5.418736969328943</v>
       </c>
     </row>
     <row r="6864" spans="1:2">
@@ -55279,7 +55279,7 @@
         <v>6867</v>
       </c>
       <c r="B6867">
-        <v>23.14443537226763</v>
+        <v>23.14443537226762</v>
       </c>
     </row>
     <row r="6868" spans="1:2">
@@ -55303,7 +55303,7 @@
         <v>6870</v>
       </c>
       <c r="B6870">
-        <v>32.64430378337127</v>
+        <v>32.64430378337126</v>
       </c>
     </row>
     <row r="6871" spans="1:2">
@@ -55367,7 +55367,7 @@
         <v>6878</v>
       </c>
       <c r="B6878">
-        <v>0.7286888998171823</v>
+        <v>0.7286888998171822</v>
       </c>
     </row>
     <row r="6879" spans="1:2">
@@ -55423,7 +55423,7 @@
         <v>6885</v>
       </c>
       <c r="B6885">
-        <v>5.080532990713752</v>
+        <v>5.080532990713751</v>
       </c>
     </row>
     <row r="6886" spans="1:2">
@@ -55543,7 +55543,7 @@
         <v>6900</v>
       </c>
       <c r="B6900">
-        <v>0.5827307304326725</v>
+        <v>0.5827307304326724</v>
       </c>
     </row>
     <row r="6901" spans="1:2">
@@ -55639,7 +55639,7 @@
         <v>6912</v>
       </c>
       <c r="B6912">
-        <v>4.8612865466912</v>
+        <v>4.861286546691199</v>
       </c>
     </row>
     <row r="6913" spans="1:2">
@@ -55687,7 +55687,7 @@
         <v>6918</v>
       </c>
       <c r="B6918">
-        <v>23.31154447851233</v>
+        <v>23.31154447851232</v>
       </c>
     </row>
     <row r="6919" spans="1:2">
@@ -55919,7 +55919,7 @@
         <v>6947</v>
       </c>
       <c r="B6947">
-        <v>0.7201282947778844</v>
+        <v>0.7201282947778843</v>
       </c>
     </row>
     <row r="6948" spans="1:2">
@@ -56039,7 +56039,7 @@
         <v>6962</v>
       </c>
       <c r="B6962">
-        <v>5.594608899629617</v>
+        <v>5.594608899629616</v>
       </c>
     </row>
     <row r="6963" spans="1:2">
@@ -56815,7 +56815,7 @@
         <v>7059</v>
       </c>
       <c r="B7059">
-        <v>0.4832653506213986</v>
+        <v>0.4832653506213985</v>
       </c>
     </row>
     <row r="7060" spans="1:2">
@@ -57623,7 +57623,7 @@
         <v>7160</v>
       </c>
       <c r="B7160">
-        <v>2.230619358748845</v>
+        <v>2.230619358748844</v>
       </c>
     </row>
     <row r="7161" spans="1:2">
@@ -58359,7 +58359,7 @@
         <v>7252</v>
       </c>
       <c r="B7252">
-        <v>25.64872739762883</v>
+        <v>25.64872739762882</v>
       </c>
     </row>
     <row r="7253" spans="1:2">
@@ -58423,7 +58423,7 @@
         <v>7260</v>
       </c>
       <c r="B7260">
-        <v>0.8233684295671165</v>
+        <v>0.8233684295671164</v>
       </c>
     </row>
     <row r="7261" spans="1:2">
@@ -58495,7 +58495,7 @@
         <v>7269</v>
       </c>
       <c r="B7269">
-        <v>3.986967717052808</v>
+        <v>3.986967717052807</v>
       </c>
     </row>
     <row r="7270" spans="1:2">
@@ -58687,7 +58687,7 @@
         <v>7293</v>
       </c>
       <c r="B7293">
-        <v>0.8799897542364885</v>
+        <v>0.8799897542364884</v>
       </c>
     </row>
     <row r="7294" spans="1:2">
@@ -58887,7 +58887,7 @@
         <v>7318</v>
       </c>
       <c r="B7318">
-        <v>7.243367948930614</v>
+        <v>7.243367948930613</v>
       </c>
     </row>
     <row r="7319" spans="1:2">
@@ -58975,7 +58975,7 @@
         <v>7329</v>
       </c>
       <c r="B7329">
-        <v>6.636798820213228</v>
+        <v>6.636798820213227</v>
       </c>
     </row>
     <row r="7330" spans="1:2">
@@ -59319,7 +59319,7 @@
         <v>7372</v>
       </c>
       <c r="B7372">
-        <v>21.42657017205029</v>
+        <v>21.42657017205028</v>
       </c>
     </row>
     <row r="7373" spans="1:2">
@@ -59375,7 +59375,7 @@
         <v>7379</v>
       </c>
       <c r="B7379">
-        <v>0.8951473883560532</v>
+        <v>0.8951473883560531</v>
       </c>
     </row>
     <row r="7380" spans="1:2">
@@ -59679,7 +59679,7 @@
         <v>7417</v>
       </c>
       <c r="B7417">
-        <v>5.004305213557936</v>
+        <v>5.004305213557935</v>
       </c>
     </row>
     <row r="7418" spans="1:2">
@@ -59743,7 +59743,7 @@
         <v>7425</v>
       </c>
       <c r="B7425">
-        <v>0.6544159064892376</v>
+        <v>0.6544159064892375</v>
       </c>
     </row>
     <row r="7426" spans="1:2">
@@ -59767,7 +59767,7 @@
         <v>7428</v>
       </c>
       <c r="B7428">
-        <v>0.0251304605728601</v>
+        <v>0.02513046057286</v>
       </c>
     </row>
     <row r="7429" spans="1:2">
@@ -59903,7 +59903,7 @@
         <v>7445</v>
       </c>
       <c r="B7445">
-        <v>7.34415507912625</v>
+        <v>7.344155079126249</v>
       </c>
     </row>
     <row r="7446" spans="1:2">
@@ -60159,7 +60159,7 @@
         <v>7477</v>
       </c>
       <c r="B7477">
-        <v>0.9929510553781176</v>
+        <v>0.9929510553781172</v>
       </c>
     </row>
     <row r="7478" spans="1:2">
@@ -60215,7 +60215,7 @@
         <v>7484</v>
       </c>
       <c r="B7484">
-        <v>8.021559477888085</v>
+        <v>8.021559477888083</v>
       </c>
     </row>
     <row r="7485" spans="1:2">
@@ -60231,7 +60231,7 @@
         <v>7486</v>
       </c>
       <c r="B7486">
-        <v>8.809598193744575</v>
+        <v>8.809598193744574</v>
       </c>
     </row>
     <row r="7487" spans="1:2">
@@ -60311,7 +60311,7 @@
         <v>7496</v>
       </c>
       <c r="B7496">
-        <v>7.090824473307384</v>
+        <v>7.090824473307383</v>
       </c>
     </row>
     <row r="7497" spans="1:2">
@@ -60407,7 +60407,7 @@
         <v>7508</v>
       </c>
       <c r="B7508">
-        <v>44.64878659797864</v>
+        <v>44.64878659797863</v>
       </c>
     </row>
     <row r="7509" spans="1:2">
@@ -60423,7 +60423,7 @@
         <v>7510</v>
       </c>
       <c r="B7510">
-        <v>36.89383384396078</v>
+        <v>36.89383384396077</v>
       </c>
     </row>
     <row r="7511" spans="1:2">
@@ -60471,7 +60471,7 @@
         <v>7516</v>
       </c>
       <c r="B7516">
-        <v>58.49551396161122</v>
+        <v>58.49551396161121</v>
       </c>
     </row>
     <row r="7517" spans="1:2">
@@ -60647,7 +60647,7 @@
         <v>7538</v>
       </c>
       <c r="B7538">
-        <v>47.62726756389389</v>
+        <v>47.62726756389388</v>
       </c>
     </row>
     <row r="7539" spans="1:2">
@@ -60655,7 +60655,7 @@
         <v>7539</v>
       </c>
       <c r="B7539">
-        <v>51.29856846520456</v>
+        <v>51.29856846520455</v>
       </c>
     </row>
     <row r="7540" spans="1:2">
@@ -60727,7 +60727,7 @@
         <v>7548</v>
       </c>
       <c r="B7548">
-        <v>1.549944287195551</v>
+        <v>1.54994428719555</v>
       </c>
     </row>
     <row r="7549" spans="1:2">
@@ -60751,7 +60751,7 @@
         <v>7551</v>
       </c>
       <c r="B7551">
-        <v>0.461874095509507</v>
+        <v>0.4618740955095069</v>
       </c>
     </row>
     <row r="7552" spans="1:2">
@@ -60759,7 +60759,7 @@
         <v>7552</v>
       </c>
       <c r="B7552">
-        <v>0.2980327313458819</v>
+        <v>0.2980327313458818</v>
       </c>
     </row>
     <row r="7553" spans="1:2">
@@ -60799,7 +60799,7 @@
         <v>7557</v>
       </c>
       <c r="B7557">
-        <v>13.65579158194472</v>
+        <v>13.65579158194471</v>
       </c>
     </row>
     <row r="7558" spans="1:2">
@@ -60895,7 +60895,7 @@
         <v>7569</v>
       </c>
       <c r="B7569">
-        <v>7.068551074369122</v>
+        <v>7.068551074369121</v>
       </c>
     </row>
     <row r="7570" spans="1:2">
@@ -61039,7 +61039,7 @@
         <v>7587</v>
       </c>
       <c r="B7587">
-        <v>35.31183637726684</v>
+        <v>35.31183637726683</v>
       </c>
     </row>
     <row r="7588" spans="1:2">
@@ -61095,7 +61095,7 @@
         <v>7594</v>
       </c>
       <c r="B7594">
-        <v>6.812201836852043</v>
+        <v>6.812201836852042</v>
       </c>
     </row>
     <row r="7595" spans="1:2">
@@ -61135,7 +61135,7 @@
         <v>7599</v>
       </c>
       <c r="B7599">
-        <v>3.192657280968964</v>
+        <v>3.192657280968963</v>
       </c>
     </row>
     <row r="7600" spans="1:2">
@@ -61151,7 +61151,7 @@
         <v>7601</v>
       </c>
       <c r="B7601">
-        <v>4.092092298620632</v>
+        <v>4.092092298620631</v>
       </c>
     </row>
     <row r="7602" spans="1:2">
@@ -61207,7 +61207,7 @@
         <v>7608</v>
       </c>
       <c r="B7608">
-        <v>35.82383148180821</v>
+        <v>35.8238314818082</v>
       </c>
     </row>
     <row r="7609" spans="1:2">
@@ -61215,7 +61215,7 @@
         <v>7609</v>
       </c>
       <c r="B7609">
-        <v>42.72829208163084</v>
+        <v>42.72829208163083</v>
       </c>
     </row>
     <row r="7610" spans="1:2">
@@ -61255,7 +61255,7 @@
         <v>7614</v>
       </c>
       <c r="B7614">
-        <v>60.31724353793014</v>
+        <v>60.31724353793013</v>
       </c>
     </row>
     <row r="7615" spans="1:2">
@@ -61399,7 +61399,7 @@
         <v>7632</v>
       </c>
       <c r="B7632">
-        <v>32.46347895251722</v>
+        <v>32.46347895251721</v>
       </c>
     </row>
     <row r="7633" spans="1:2">
@@ -61423,7 +61423,7 @@
         <v>7635</v>
       </c>
       <c r="B7635">
-        <v>47.57891084251477</v>
+        <v>47.57891084251476</v>
       </c>
     </row>
     <row r="7636" spans="1:2">
@@ -61431,7 +61431,7 @@
         <v>7636</v>
       </c>
       <c r="B7636">
-        <v>50.40177108690085</v>
+        <v>50.40177108690084</v>
       </c>
     </row>
     <row r="7637" spans="1:2">
@@ -61455,7 +61455,7 @@
         <v>7639</v>
       </c>
       <c r="B7639">
-        <v>54.80135351928496</v>
+        <v>54.80135351928495</v>
       </c>
     </row>
     <row r="7640" spans="1:2">
@@ -61567,7 +61567,7 @@
         <v>7653</v>
       </c>
       <c r="B7653">
-        <v>9.77488627378345</v>
+        <v>9.774886273783448</v>
       </c>
     </row>
     <row r="7654" spans="1:2">
@@ -61703,7 +61703,7 @@
         <v>7670</v>
       </c>
       <c r="B7670">
-        <v>0.9429414133409454</v>
+        <v>0.9429414133409452</v>
       </c>
     </row>
     <row r="7671" spans="1:2">
@@ -61711,7 +61711,7 @@
         <v>7671</v>
       </c>
       <c r="B7671">
-        <v>0.6003384384354462</v>
+        <v>0.6003384384354461</v>
       </c>
     </row>
     <row r="7672" spans="1:2">
@@ -61719,7 +61719,7 @@
         <v>7672</v>
       </c>
       <c r="B7672">
-        <v>0.761732659426249</v>
+        <v>0.7617326594262489</v>
       </c>
     </row>
     <row r="7673" spans="1:2">
@@ -61727,7 +61727,7 @@
         <v>7673</v>
       </c>
       <c r="B7673">
-        <v>0.8940864711960992</v>
+        <v>0.8940864711960991</v>
       </c>
     </row>
     <row r="7674" spans="1:2">
@@ -61775,7 +61775,7 @@
         <v>7679</v>
       </c>
       <c r="B7679">
-        <v>19.76910691290105</v>
+        <v>19.76910691290104</v>
       </c>
     </row>
     <row r="7680" spans="1:2">
@@ -61919,7 +61919,7 @@
         <v>7697</v>
       </c>
       <c r="B7697">
-        <v>0.1888793022095798</v>
+        <v>0.1888793022095797</v>
       </c>
     </row>
     <row r="7698" spans="1:2">
@@ -62039,7 +62039,7 @@
         <v>7712</v>
       </c>
       <c r="B7712">
-        <v>0.9309841149635626</v>
+        <v>0.9309841149635624</v>
       </c>
     </row>
     <row r="7713" spans="1:2">
@@ -62431,7 +62431,7 @@
         <v>7761</v>
       </c>
       <c r="B7761">
-        <v>1.058593106617486</v>
+        <v>1.058593106617485</v>
       </c>
     </row>
     <row r="7762" spans="1:2">
@@ -62551,7 +62551,7 @@
         <v>7776</v>
       </c>
       <c r="B7776">
-        <v>7.133847301782869</v>
+        <v>7.133847301782868</v>
       </c>
     </row>
     <row r="7777" spans="1:2">
@@ -62591,7 +62591,7 @@
         <v>7781</v>
       </c>
       <c r="B7781">
-        <v>32.13758395752581</v>
+        <v>32.1375839575258</v>
       </c>
     </row>
     <row r="7782" spans="1:2">
@@ -62671,7 +62671,7 @@
         <v>7791</v>
       </c>
       <c r="B7791">
-        <v>0.4801324212181088</v>
+        <v>0.4801324212181087</v>
       </c>
     </row>
     <row r="7792" spans="1:2">
@@ -62679,7 +62679,7 @@
         <v>7792</v>
       </c>
       <c r="B7792">
-        <v>0.270507792465847</v>
+        <v>0.2705077924658469</v>
       </c>
     </row>
     <row r="7793" spans="1:2">
@@ -63183,7 +63183,7 @@
         <v>7855</v>
       </c>
       <c r="B7855">
-        <v>0.9312420174775846</v>
+        <v>0.9312420174775844</v>
       </c>
     </row>
     <row r="7856" spans="1:2">
@@ -63375,7 +63375,7 @@
         <v>7879</v>
       </c>
       <c r="B7879">
-        <v>0.8548296055674121</v>
+        <v>0.8548296055674119</v>
       </c>
     </row>
     <row r="7880" spans="1:2">
@@ -63519,7 +63519,7 @@
         <v>7897</v>
       </c>
       <c r="B7897">
-        <v>7.553407800730451</v>
+        <v>7.55340780073045</v>
       </c>
     </row>
     <row r="7898" spans="1:2">
@@ -63551,7 +63551,7 @@
         <v>7901</v>
       </c>
       <c r="B7901">
-        <v>28.74947760087359</v>
+        <v>28.74947760087358</v>
       </c>
     </row>
     <row r="7902" spans="1:2">
@@ -63911,7 +63911,7 @@
         <v>7946</v>
       </c>
       <c r="B7946">
-        <v>4.513997365877505</v>
+        <v>4.513997365877504</v>
       </c>
     </row>
     <row r="7947" spans="1:2">
@@ -63951,7 +63951,7 @@
         <v>7951</v>
       </c>
       <c r="B7951">
-        <v>7.333956206980836</v>
+        <v>7.333956206980835</v>
       </c>
     </row>
     <row r="7952" spans="1:2">
@@ -64111,7 +64111,7 @@
         <v>7971</v>
       </c>
       <c r="B7971">
-        <v>3.263258094182482</v>
+        <v>3.263258094182481</v>
       </c>
     </row>
     <row r="7972" spans="1:2">
@@ -64159,7 +64159,7 @@
         <v>7977</v>
       </c>
       <c r="B7977">
-        <v>0.3916484132254754</v>
+        <v>0.3916484132254753</v>
       </c>
     </row>
     <row r="7978" spans="1:2">
@@ -64375,7 +64375,7 @@
         <v>8004</v>
       </c>
       <c r="B8004">
-        <v>0.6868793854417549</v>
+        <v>0.6868793854417548</v>
       </c>
     </row>
     <row r="8005" spans="1:2">
@@ -64383,7 +64383,7 @@
         <v>8005</v>
       </c>
       <c r="B8005">
-        <v>0.8360144448853536</v>
+        <v>0.8360144448853535</v>
       </c>
     </row>
     <row r="8006" spans="1:2">
@@ -64447,7 +64447,7 @@
         <v>8013</v>
       </c>
       <c r="B8013">
-        <v>7.632566288272881</v>
+        <v>7.63256628827288</v>
       </c>
     </row>
     <row r="8014" spans="1:2">
@@ -64511,7 +64511,7 @@
         <v>8021</v>
       </c>
       <c r="B8021">
-        <v>42.61077059512764</v>
+        <v>42.61077059512763</v>
       </c>
     </row>
     <row r="8022" spans="1:2">
@@ -64527,7 +64527,7 @@
         <v>8023</v>
       </c>
       <c r="B8023">
-        <v>48.30484780527892</v>
+        <v>48.30484780527891</v>
       </c>
     </row>
     <row r="8024" spans="1:2">
@@ -64583,7 +64583,7 @@
         <v>8030</v>
       </c>
       <c r="B8030">
-        <v>0.7192490816619004</v>
+        <v>0.7192490816619003</v>
       </c>
     </row>
     <row r="8031" spans="1:2">
@@ -64607,7 +64607,7 @@
         <v>8033</v>
       </c>
       <c r="B8033">
-        <v>0.7808526139885152</v>
+        <v>0.7808526139885151</v>
       </c>
     </row>
     <row r="8034" spans="1:2">
@@ -64687,7 +64687,7 @@
         <v>8043</v>
       </c>
       <c r="B8043">
-        <v>47.33947180392845</v>
+        <v>47.33947180392844</v>
       </c>
     </row>
     <row r="8044" spans="1:2">
@@ -64703,7 +64703,7 @@
         <v>8045</v>
       </c>
       <c r="B8045">
-        <v>55.07918486393592</v>
+        <v>55.07918486393591</v>
       </c>
     </row>
     <row r="8046" spans="1:2">
@@ -64751,7 +64751,7 @@
         <v>8051</v>
       </c>
       <c r="B8051">
-        <v>5.372109367077925</v>
+        <v>5.372109367077924</v>
       </c>
     </row>
     <row r="8052" spans="1:2">
@@ -64839,7 +64839,7 @@
         <v>8062</v>
       </c>
       <c r="B8062">
-        <v>16.78098390981384</v>
+        <v>16.78098390981383</v>
       </c>
     </row>
     <row r="8063" spans="1:2">
@@ -64863,7 +64863,7 @@
         <v>8065</v>
       </c>
       <c r="B8065">
-        <v>29.91639855551147</v>
+        <v>29.91639855551146</v>
       </c>
     </row>
     <row r="8066" spans="1:2">
@@ -64975,7 +64975,7 @@
         <v>8079</v>
       </c>
       <c r="B8079">
-        <v>0.410598386585318</v>
+        <v>0.4105983865853179</v>
       </c>
     </row>
     <row r="8080" spans="1:2">
@@ -64999,7 +64999,7 @@
         <v>8082</v>
       </c>
       <c r="B8082">
-        <v>0.1908537217970413</v>
+        <v>0.1908537217970412</v>
       </c>
     </row>
     <row r="8083" spans="1:2">
@@ -65071,7 +65071,7 @@
         <v>8091</v>
       </c>
       <c r="B8091">
-        <v>31.92041831787775</v>
+        <v>31.92041831787774</v>
       </c>
     </row>
     <row r="8092" spans="1:2">
@@ -65215,7 +65215,7 @@
         <v>8109</v>
       </c>
       <c r="B8109">
-        <v>6.817711572378876</v>
+        <v>6.817711572378875</v>
       </c>
     </row>
     <row r="8110" spans="1:2">
@@ -65223,7 +65223,7 @@
         <v>8110</v>
       </c>
       <c r="B8110">
-        <v>8.264867054184734</v>
+        <v>8.264867054184732</v>
       </c>
     </row>
     <row r="8111" spans="1:2">
@@ -65295,7 +65295,7 @@
         <v>8119</v>
       </c>
       <c r="B8119">
-        <v>40.51941566324028</v>
+        <v>40.51941566324027</v>
       </c>
     </row>
     <row r="8120" spans="1:2">
@@ -65375,7 +65375,7 @@
         <v>8129</v>
       </c>
       <c r="B8129">
-        <v>0.3473214186279469</v>
+        <v>0.3473214186279468</v>
       </c>
     </row>
     <row r="8130" spans="1:2">
@@ -65487,7 +65487,7 @@
         <v>8143</v>
       </c>
       <c r="B8143">
-        <v>53.41571364849412</v>
+        <v>53.41571364849411</v>
       </c>
     </row>
     <row r="8144" spans="1:2">
@@ -65519,7 +65519,7 @@
         <v>8147</v>
       </c>
       <c r="B8147">
-        <v>7.854889978201377</v>
+        <v>7.854889978201376</v>
       </c>
     </row>
     <row r="8148" spans="1:2">
@@ -65583,7 +65583,7 @@
         <v>8155</v>
       </c>
       <c r="B8155">
-        <v>34.61110352382756</v>
+        <v>34.61110352382755</v>
       </c>
     </row>
     <row r="8156" spans="1:2">
@@ -65655,7 +65655,7 @@
         <v>8164</v>
       </c>
       <c r="B8164">
-        <v>57.71858263811999</v>
+        <v>57.71858263811998</v>
       </c>
     </row>
     <row r="8165" spans="1:2">
@@ -65759,7 +65759,7 @@
         <v>8177</v>
       </c>
       <c r="B8177">
-        <v>20.62496226710378</v>
+        <v>20.62496226710377</v>
       </c>
     </row>
     <row r="8178" spans="1:2">
@@ -65823,7 +65823,7 @@
         <v>8185</v>
       </c>
       <c r="B8185">
-        <v>60.63082954929778</v>
+        <v>60.63082954929777</v>
       </c>
     </row>
     <row r="8186" spans="1:2">
@@ -65863,7 +65863,7 @@
         <v>8190</v>
       </c>
       <c r="B8190">
-        <v>71.24498335649572</v>
+        <v>71.24498335649571</v>
       </c>
     </row>
     <row r="8191" spans="1:2">
@@ -65871,7 +65871,7 @@
         <v>8191</v>
       </c>
       <c r="B8191">
-        <v>71.48207782677275</v>
+        <v>71.48207782677274</v>
       </c>
     </row>
     <row r="8192" spans="1:2">
@@ -65975,7 +65975,7 @@
         <v>8204</v>
       </c>
       <c r="B8204">
-        <v>58.544163754029</v>
+        <v>58.54416375402899</v>
       </c>
     </row>
     <row r="8205" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>49.1761480032191</v>
+        <v>49.17614800321909</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -66103,7 +66103,7 @@
         <v>8220</v>
       </c>
       <c r="B8220">
-        <v>8.695974552055572</v>
+        <v>8.695974552055571</v>
       </c>
     </row>
     <row r="8221" spans="1:2">
@@ -66127,7 +66127,7 @@
         <v>8223</v>
       </c>
       <c r="B8223">
-        <v>4.654407700500156</v>
+        <v>4.654407700500155</v>
       </c>
     </row>
     <row r="8224" spans="1:2">
@@ -66223,7 +66223,7 @@
         <v>8235</v>
       </c>
       <c r="B8235">
-        <v>57.56823719528672</v>
+        <v>57.56823719528671</v>
       </c>
     </row>
     <row r="8236" spans="1:2">
@@ -66367,7 +66367,7 @@
         <v>8253</v>
       </c>
       <c r="B8253">
-        <v>27.17363462599154</v>
+        <v>27.17363462599153</v>
       </c>
     </row>
     <row r="8254" spans="1:2">
@@ -66623,7 +66623,7 @@
         <v>8285</v>
       </c>
       <c r="B8285">
-        <v>56.07797096369378</v>
+        <v>56.07797096369377</v>
       </c>
     </row>
     <row r="8286" spans="1:2">
@@ -66647,7 +66647,7 @@
         <v>8288</v>
       </c>
       <c r="B8288">
-        <v>17.04688726319128</v>
+        <v>17.04688726319127</v>
       </c>
     </row>
     <row r="8289" spans="1:2">
@@ -66887,7 +66887,7 @@
         <v>8318</v>
       </c>
       <c r="B8318">
-        <v>27.59653613477986</v>
+        <v>27.59653613477985</v>
       </c>
     </row>
     <row r="8319" spans="1:2">
@@ -66959,7 +66959,7 @@
         <v>8327</v>
       </c>
       <c r="B8327">
-        <v>50.50082909796838</v>
+        <v>50.50082909796837</v>
       </c>
     </row>
     <row r="8328" spans="1:2">
@@ -67055,7 +67055,7 @@
         <v>8339</v>
       </c>
       <c r="B8339">
-        <v>15.75904519800173</v>
+        <v>15.75904519800172</v>
       </c>
     </row>
     <row r="8340" spans="1:2">
@@ -67063,7 +67063,7 @@
         <v>8340</v>
       </c>
       <c r="B8340">
-        <v>9.756657255178713</v>
+        <v>9.756657255178711</v>
       </c>
     </row>
     <row r="8341" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>5.571866587029497</v>
+        <v>5.571866587029496</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67119,7 +67119,7 @@
         <v>8347</v>
       </c>
       <c r="B8347">
-        <v>33.76530050625092</v>
+        <v>33.76530050625091</v>
       </c>
     </row>
     <row r="8348" spans="1:2">
@@ -67143,7 +67143,7 @@
         <v>8350</v>
       </c>
       <c r="B8350">
-        <v>27.29010105675556</v>
+        <v>27.29010105675555</v>
       </c>
     </row>
     <row r="8351" spans="1:2">
@@ -67351,7 +67351,7 @@
         <v>8376</v>
       </c>
       <c r="B8376">
-        <v>30.51778032684455</v>
+        <v>30.51778032684454</v>
       </c>
     </row>
     <row r="8377" spans="1:2">
@@ -67359,7 +67359,7 @@
         <v>8377</v>
       </c>
       <c r="B8377">
-        <v>35.59728756892299</v>
+        <v>35.59728756892298</v>
       </c>
     </row>
     <row r="8378" spans="1:2">
@@ -67399,7 +67399,7 @@
         <v>8382</v>
       </c>
       <c r="B8382">
-        <v>51.34663211554502</v>
+        <v>51.34663211554501</v>
       </c>
     </row>
     <row r="8383" spans="1:2">
@@ -67543,7 +67543,7 @@
         <v>8400</v>
       </c>
       <c r="B8400">
-        <v>30.04915973602506</v>
+        <v>30.04915973602505</v>
       </c>
     </row>
     <row r="8401" spans="1:2">
@@ -67631,7 +67631,7 @@
         <v>8411</v>
       </c>
       <c r="B8411">
-        <v>4.754081160748879</v>
+        <v>4.754081160748878</v>
       </c>
     </row>
     <row r="8412" spans="1:2">
@@ -67719,7 +67719,7 @@
         <v>8422</v>
       </c>
       <c r="B8422">
-        <v>16.78614196009428</v>
+        <v>16.78614196009427</v>
       </c>
     </row>
     <row r="8423" spans="1:2">
@@ -67807,7 +67807,7 @@
         <v>8433</v>
       </c>
       <c r="B8433">
-        <v>5.02610969883434</v>
+        <v>5.026109698834339</v>
       </c>
     </row>
     <row r="8434" spans="1:2">
@@ -67983,7 +67983,7 @@
         <v>8455</v>
       </c>
       <c r="B8455">
-        <v>38.39435756190687</v>
+        <v>38.39435756190686</v>
       </c>
     </row>
     <row r="8456" spans="1:2">
@@ -68023,7 +68023,7 @@
         <v>8460</v>
       </c>
       <c r="B8460">
-        <v>2.017073146428256</v>
+        <v>2.017073146428255</v>
       </c>
     </row>
     <row r="8461" spans="1:2">
@@ -68047,7 +68047,7 @@
         <v>8463</v>
       </c>
       <c r="B8463">
-        <v>0.6768915244441762</v>
+        <v>0.6768915244441761</v>
       </c>
     </row>
     <row r="8464" spans="1:2">
@@ -68087,7 +68087,7 @@
         <v>8468</v>
       </c>
       <c r="B8468">
-        <v>24.75802589692926</v>
+        <v>24.75802589692925</v>
       </c>
     </row>
     <row r="8469" spans="1:2">
@@ -68271,7 +68271,7 @@
         <v>8491</v>
       </c>
       <c r="B8491">
-        <v>39.176564164094</v>
+        <v>39.17656416409399</v>
       </c>
     </row>
     <row r="8492" spans="1:2">
@@ -68327,7 +68327,7 @@
         <v>8498</v>
       </c>
       <c r="B8498">
-        <v>51.56584925246371</v>
+        <v>51.5658492524637</v>
       </c>
     </row>
     <row r="8499" spans="1:2">
@@ -68359,7 +68359,7 @@
         <v>8502</v>
       </c>
       <c r="B8502">
-        <v>63.85343869041793</v>
+        <v>63.85343869041792</v>
       </c>
     </row>
     <row r="8503" spans="1:2">
@@ -68383,7 +68383,7 @@
         <v>8505</v>
       </c>
       <c r="B8505">
-        <v>26.05319473808535</v>
+        <v>26.05319473808534</v>
       </c>
     </row>
     <row r="8506" spans="1:2">
@@ -68415,7 +68415,7 @@
         <v>8509</v>
       </c>
       <c r="B8509">
-        <v>26.68581788213973</v>
+        <v>26.68581788213972</v>
       </c>
     </row>
     <row r="8510" spans="1:2">
@@ -68487,7 +68487,7 @@
         <v>8518</v>
       </c>
       <c r="B8518">
-        <v>40.12171826377684</v>
+        <v>40.12171826377683</v>
       </c>
     </row>
     <row r="8519" spans="1:2">
@@ -68535,7 +68535,7 @@
         <v>8524</v>
       </c>
       <c r="B8524">
-        <v>63.79218684333771</v>
+        <v>63.7921868433377</v>
       </c>
     </row>
     <row r="8525" spans="1:2">
@@ -68687,7 +68687,7 @@
         <v>8543</v>
       </c>
       <c r="B8543">
-        <v>48.65155084401529</v>
+        <v>48.65155084401528</v>
       </c>
     </row>
     <row r="8544" spans="1:2">
@@ -68719,7 +68719,7 @@
         <v>8547</v>
       </c>
       <c r="B8547">
-        <v>67.92800534092662</v>
+        <v>67.9280053409266</v>
       </c>
     </row>
     <row r="8548" spans="1:2">
@@ -68743,7 +68743,7 @@
         <v>8550</v>
       </c>
       <c r="B8550">
-        <v>74.95203892452308</v>
+        <v>74.95203892452307</v>
       </c>
     </row>
     <row r="8551" spans="1:2">
@@ -68751,7 +68751,7 @@
         <v>8551</v>
       </c>
       <c r="B8551">
-        <v>75.39516233497903</v>
+        <v>75.39516233497902</v>
       </c>
     </row>
     <row r="8552" spans="1:2">
@@ -68807,7 +68807,7 @@
         <v>8558</v>
       </c>
       <c r="B8558">
-        <v>19.50071245569499</v>
+        <v>19.50071245569498</v>
       </c>
     </row>
     <row r="8559" spans="1:2">
@@ -68831,7 +68831,7 @@
         <v>8561</v>
       </c>
       <c r="B8561">
-        <v>21.82605530484957</v>
+        <v>21.82605530484956</v>
       </c>
     </row>
     <row r="8562" spans="1:2">
@@ -68871,7 +68871,7 @@
         <v>8566</v>
       </c>
       <c r="B8566">
-        <v>52.61328514463936</v>
+        <v>52.61328514463935</v>
       </c>
     </row>
     <row r="8567" spans="1:2">
@@ -68895,7 +68895,7 @@
         <v>8569</v>
       </c>
       <c r="B8569">
-        <v>63.18318522499944</v>
+        <v>63.18318522499943</v>
       </c>
     </row>
     <row r="8570" spans="1:2">
@@ -68919,7 +68919,7 @@
         <v>8572</v>
       </c>
       <c r="B8572">
-        <v>71.74437640637466</v>
+        <v>71.74437640637464</v>
       </c>
     </row>
     <row r="8573" spans="1:2">
@@ -69007,7 +69007,7 @@
         <v>8583</v>
       </c>
       <c r="B8583">
-        <v>21.41118394252057</v>
+        <v>21.41118394252056</v>
       </c>
     </row>
     <row r="8584" spans="1:2">
@@ -69055,7 +69055,7 @@
         <v>8589</v>
       </c>
       <c r="B8589">
-        <v>47.50769458012006</v>
+        <v>47.50769458012005</v>
       </c>
     </row>
     <row r="8590" spans="1:2">
@@ -69095,7 +69095,7 @@
         <v>8594</v>
       </c>
       <c r="B8594">
-        <v>62.82681084198724</v>
+        <v>62.82681084198723</v>
       </c>
     </row>
     <row r="8595" spans="1:2">
@@ -69119,7 +69119,7 @@
         <v>8597</v>
       </c>
       <c r="B8597">
-        <v>71.1966266351166</v>
+        <v>71.19662663511659</v>
       </c>
     </row>
     <row r="8598" spans="1:2">
@@ -69183,7 +69183,7 @@
         <v>8605</v>
       </c>
       <c r="B8605">
-        <v>5.976099470655091</v>
+        <v>5.97609947065509</v>
       </c>
     </row>
     <row r="8606" spans="1:2">
@@ -69231,7 +69231,7 @@
         <v>8611</v>
       </c>
       <c r="B8611">
-        <v>41.62517269210954</v>
+        <v>41.62517269210953</v>
       </c>
     </row>
     <row r="8612" spans="1:2">
@@ -69295,7 +69295,7 @@
         <v>8619</v>
       </c>
       <c r="B8619">
-        <v>57.48676344653887</v>
+        <v>57.48676344653886</v>
       </c>
     </row>
     <row r="8620" spans="1:2">
@@ -69327,7 +69327,7 @@
         <v>8623</v>
       </c>
       <c r="B8623">
-        <v>63.94253228617098</v>
+        <v>63.94253228617097</v>
       </c>
     </row>
     <row r="8624" spans="1:2">
@@ -69447,7 +69447,7 @@
         <v>8638</v>
       </c>
       <c r="B8638">
-        <v>27.6953303819126</v>
+        <v>27.69533038191259</v>
       </c>
     </row>
     <row r="8639" spans="1:2">
@@ -69463,7 +69463,7 @@
         <v>8640</v>
       </c>
       <c r="B8640">
-        <v>37.01106225942532</v>
+        <v>37.01106225942531</v>
       </c>
     </row>
     <row r="8641" spans="1:2">
@@ -69479,7 +69479,7 @@
         <v>8642</v>
       </c>
       <c r="B8642">
-        <v>43.46683109905743</v>
+        <v>43.46683109905742</v>
       </c>
     </row>
     <row r="8643" spans="1:2">
@@ -69519,7 +69519,7 @@
         <v>8647</v>
       </c>
       <c r="B8647">
-        <v>51.95797830219259</v>
+        <v>51.95797830219258</v>
       </c>
     </row>
     <row r="8648" spans="1:2">
@@ -69551,7 +69551,7 @@
         <v>8651</v>
       </c>
       <c r="B8651">
-        <v>6.72313754820286</v>
+        <v>6.723137548202859</v>
       </c>
     </row>
     <row r="8652" spans="1:2">
@@ -69647,7 +69647,7 @@
         <v>8663</v>
       </c>
       <c r="B8663">
-        <v>21.12034024375305</v>
+        <v>21.12034024375304</v>
       </c>
     </row>
     <row r="8664" spans="1:2">
@@ -69743,7 +69743,7 @@
         <v>8675</v>
       </c>
       <c r="B8675">
-        <v>12.40420240423758</v>
+        <v>12.40420240423757</v>
       </c>
     </row>
     <row r="8676" spans="1:2">
@@ -69823,7 +69823,7 @@
         <v>8685</v>
       </c>
       <c r="B8685">
-        <v>14.78197566220867</v>
+        <v>14.78197566220866</v>
       </c>
     </row>
     <row r="8686" spans="1:2">
@@ -69895,7 +69895,7 @@
         <v>8694</v>
       </c>
       <c r="B8694">
-        <v>36.48646510022151</v>
+        <v>36.4864651002215</v>
       </c>
     </row>
     <row r="8695" spans="1:2">
@@ -69951,7 +69951,7 @@
         <v>8701</v>
       </c>
       <c r="B8701">
-        <v>6.167386937589351</v>
+        <v>6.16738693758935</v>
       </c>
     </row>
     <row r="8702" spans="1:2">
@@ -69983,7 +69983,7 @@
         <v>8705</v>
       </c>
       <c r="B8705">
-        <v>1.561242175735946</v>
+        <v>1.561242175735945</v>
       </c>
     </row>
     <row r="8706" spans="1:2">
@@ -70119,7 +70119,7 @@
         <v>8722</v>
       </c>
       <c r="B8722">
-        <v>3.090492716891619</v>
+        <v>3.090492716891618</v>
       </c>
     </row>
     <row r="8723" spans="1:2">
@@ -70223,7 +70223,7 @@
         <v>8735</v>
       </c>
       <c r="B8735">
-        <v>7.172005151016577</v>
+        <v>7.172005151016576</v>
       </c>
     </row>
     <row r="8736" spans="1:2">
@@ -70279,7 +70279,7 @@
         <v>8742</v>
       </c>
       <c r="B8742">
-        <v>43.31912329557211</v>
+        <v>43.3191232955721</v>
       </c>
     </row>
     <row r="8743" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>5.560993651495162</v>
+        <v>5.560993651495161</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
